--- a/Documentation/Time Log and Contribution.xlsx
+++ b/Documentation/Time Log and Contribution.xlsx
@@ -520,7 +520,7 @@
     <t>Made a transcrypt program from scratch</t>
   </si>
   <si>
-    <t>Putting data into big data structue to be passed as big JSON object</t>
+    <t>Putting data into big data structure to be passed as big JSON object</t>
   </si>
   <si>
     <t>11:51 A.M.</t>
